--- a/Input/config.xlsx
+++ b/Input/config.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DO NOT RENAME" sheetId="1" r:id="rId1"/>
+    <sheet name="Google Drive Config" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Aircraft Tail Number</t>
   </si>
@@ -37,13 +38,31 @@
   </si>
   <si>
     <t>PC</t>
+  </si>
+  <si>
+    <t>Email Address:</t>
+  </si>
+  <si>
+    <t>Password:</t>
+  </si>
+  <si>
+    <t>Folder ID:</t>
+  </si>
+  <si>
+    <t>karthik.karthika@gmail.com</t>
+  </si>
+  <si>
+    <t>m.karthik</t>
+  </si>
+  <si>
+    <t>17NlgjfJaLknP1BdzJ4sO-2glgMnq1SbW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +70,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,15 +107,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -356,38 +416,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -395,4 +455,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>